--- a/circuitInformation/CircuitInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/CircuitInformation1-1-1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD2D577-5B2A-AB42-BEA0-4E04C3CE8E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC85C13-3C8F-4043-B3B6-B4A767549923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
@@ -9467,7 +9467,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:AE31"/>
+      <selection activeCell="E8" sqref="E8:AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10822,64 +10822,64 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -10917,64 +10917,64 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -11012,64 +11012,64 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -56842,8 +56842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection sqref="A1:AE31"/>
+    <sheetView topLeftCell="A8" zoomScale="164" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -58198,64 +58198,64 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -58388,64 +58388,64 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>

--- a/circuitInformation/CircuitInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/CircuitInformation1-1-1-1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53448E35-507B-3145-8F4C-04310CC11FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB574E37-91CF-C144-B7F3-F1329CF79186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Circuit Values" sheetId="21" r:id="rId1"/>
@@ -94,15 +94,15 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>0.5e-9</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>0.024</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>0.012</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3e-9</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078E55DD-E9B7-D844-A9B9-C7A189A082FB}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
@@ -542,16 +542,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -582,8 +582,8 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6347,7 +6347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
